--- a/biology/Zoologie/Anolis_carlliebi/Anolis_carlliebi.xlsx
+++ b/biology/Zoologie/Anolis_carlliebi/Anolis_carlliebi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anolis carlliebi est une espèce de sauriens de la famille des Dactyloidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anolis carlliebi est une espèce de sauriens de la famille des Dactyloidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Oaxaca au Mexique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Oaxaca au Mexique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent jusqu'à 46,0 mm et les femelles jusqu'à 41,0 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent jusqu'à 46,0 mm et les femelles jusqu'à 41,0 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Carl S. Lieb[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Carl S. Lieb.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Köhler, Trejo-Pérez, Petersen &amp; Mendez de la Cruz, 2014 : A revision of the Mexican Anolis (Reptilia, Squamata, Dactyloidae) from the Pacific versant west of the Isthmus de Tehuantepec in the states of Oaxaca, Guerrero, and Puebla, with the description of six new species. Zootaxa, no 3862 (1), p. 1–210.</t>
         </is>
